--- a/ZPDDati.xlsx
+++ b/ZPDDati.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristerszvidris/Library/Mobile Documents/com~apple~CloudDocs/Skola_rvvg/11Klase/ZPD/Faili/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ACC8DC-9DD4-0345-87E4-757909443699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7662EBD-92E0-0346-8FD4-B6D3D0CF1BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="29400" windowHeight="18460" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fizika" sheetId="1" r:id="rId1"/>
@@ -801,7 +801,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -866,30 +866,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -918,14 +894,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -937,24 +912,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1215,8 +1184,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1234,188 +1203,188 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="14" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="10" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1433,8 +1402,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1525,114 +1494,112 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="10" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="25">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="6"/>
+      <c r="D13" s="24"/>
     </row>
     <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="24"/>
     </row>
   </sheetData>
@@ -1647,7 +1614,7 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1666,188 +1633,182 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="25">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,188 +1841,188 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="25">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2111,13 +2072,13 @@
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>199</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2125,157 +2086,157 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>192</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="25">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2378,118 +2339,118 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="138" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="26">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2503,8 +2464,8 @@
   </sheetPr>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2609,99 +2570,99 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>8</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="25">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
